--- a/BackTest/2020-01-16 BackTest BAT.xlsx
+++ b/BackTest/2020-01-16 BackTest BAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-52897.41684285315</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-49978.73704285315</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>220.6</v>
@@ -521,7 +521,7 @@
         <v>-44905.00064285315</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>221.1</v>
@@ -562,7 +562,7 @@
         <v>-45088.27324285315</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>222.3</v>
@@ -603,7 +603,7 @@
         <v>-45266.72394285315</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>221.8</v>
@@ -640,7 +640,7 @@
         <v>-53316.88354285315</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>221.5</v>
@@ -681,7 +681,7 @@
         <v>-53495.28894285315</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>221</v>
@@ -722,7 +722,7 @@
         <v>-53264.39684285315</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>220.1</v>
@@ -763,11 +763,9 @@
         <v>-56952.91674285315</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>220.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>221.8</v>
       </c>
@@ -999,9 +997,11 @@
         <v>-67846.01894285314</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>221.3</v>
+      </c>
       <c r="J16" t="n">
         <v>221.8</v>
       </c>
@@ -1974,9 +1974,11 @@
         <v>-133318.3548428532</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>227.5</v>
+      </c>
       <c r="J41" t="n">
         <v>221.8</v>
       </c>
@@ -2091,9 +2093,11 @@
         <v>-132514.0724428532</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>227.7</v>
+      </c>
       <c r="J44" t="n">
         <v>221.8</v>
       </c>
@@ -2130,9 +2134,11 @@
         <v>-130090.8656428532</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>227.7</v>
+      </c>
       <c r="J45" t="n">
         <v>221.8</v>
       </c>
@@ -2247,9 +2253,11 @@
         <v>-129549.2471428532</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>228</v>
+      </c>
       <c r="J48" t="n">
         <v>221.8</v>
       </c>
@@ -2403,9 +2411,11 @@
         <v>-124777.8514428532</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>229</v>
+      </c>
       <c r="J52" t="n">
         <v>221.8</v>
       </c>
@@ -2559,9 +2569,11 @@
         <v>-118883.2073428532</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>229.9</v>
+      </c>
       <c r="J56" t="n">
         <v>221.8</v>
       </c>
@@ -2871,9 +2883,11 @@
         <v>-103377.7917000595</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>229.9</v>
+      </c>
       <c r="J64" t="n">
         <v>221.8</v>
       </c>
@@ -2949,9 +2963,11 @@
         <v>-93686.31950005953</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>231.8</v>
+      </c>
       <c r="J66" t="n">
         <v>221.8</v>
       </c>
@@ -7278,7 +7294,7 @@
         <v>23057.39483271076</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
@@ -7286,15 +7302,13 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>1.078859332732191</v>
-      </c>
-      <c r="M177" t="n">
-        <v>1.011332728921124</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7322,8 +7336,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7355,8 +7375,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7388,8 +7414,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7421,8 +7453,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7454,8 +7492,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7487,8 +7531,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7520,8 +7570,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7553,8 +7609,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7586,8 +7648,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7619,8 +7687,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7652,8 +7726,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7685,8 +7765,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7718,8 +7804,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7751,8 +7843,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7784,8 +7882,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7817,8 +7921,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7850,8 +7960,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7883,8 +7999,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7916,8 +8038,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7949,8 +8077,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7982,8 +8116,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8015,8 +8155,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8048,8 +8194,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8081,8 +8233,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8114,8 +8272,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8147,8 +8311,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8180,8 +8350,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8213,8 +8389,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8246,8 +8428,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8279,8 +8467,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8312,8 +8506,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8345,8 +8545,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8378,8 +8584,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8411,8 +8623,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8444,8 +8662,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8477,8 +8701,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8510,8 +8740,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8543,8 +8779,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8573,11 +8815,17 @@
         <v>14990.10183271076</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8609,8 +8857,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8639,11 +8893,17 @@
         <v>15340.87643271077</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8672,11 +8932,17 @@
         <v>15100.87653271076</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8705,11 +8971,17 @@
         <v>18770.82313271076</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8738,11 +9010,17 @@
         <v>19560.86303271076</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8771,11 +9049,17 @@
         <v>10618.43873271076</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8804,11 +9088,17 @@
         <v>11055.49933271076</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8837,11 +9127,17 @@
         <v>10971.49933271076</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8870,11 +9166,17 @@
         <v>10654.49933271076</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8903,11 +9205,17 @@
         <v>15881.80133271076</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8936,11 +9244,17 @@
         <v>15797.80133271076</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8969,11 +9283,17 @@
         <v>15394.68103271076</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9002,11 +9322,17 @@
         <v>17458.80203271076</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9035,11 +9361,17 @@
         <v>19458.80203271076</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9068,11 +9400,17 @@
         <v>19458.80203271076</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9101,11 +9439,17 @@
         <v>21153.34773271076</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9134,11 +9478,17 @@
         <v>21153.34773271076</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9167,11 +9517,17 @@
         <v>7707.646932710761</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9200,11 +9556,17 @@
         <v>7451.99653271076</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9233,11 +9595,17 @@
         <v>-18428.65756728924</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9266,11 +9634,17 @@
         <v>-18428.65756728924</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9299,11 +9673,17 @@
         <v>-24193.98296728924</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9332,11 +9712,17 @@
         <v>-23693.98296728924</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9365,11 +9751,17 @@
         <v>-24914.4193457558</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9401,8 +9793,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9434,8 +9832,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9467,8 +9871,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9500,8 +9910,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9533,8 +9949,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9566,8 +9988,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9599,8 +10027,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9632,8 +10066,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9665,8 +10105,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9695,15 +10141,23 @@
         <v>-20711.7661457558</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>1.102303877366997</v>
+      </c>
+      <c r="M250" t="n">
+        <v>1.011332728921124</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9728,7 +10182,7 @@
         <v>-19080.9078457558</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9761,7 +10215,7 @@
         <v>-19126.95164575579</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9794,7 +10248,7 @@
         <v>-19200.3371457558</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9827,7 +10281,7 @@
         <v>-23904.55664575579</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9860,7 +10314,7 @@
         <v>-24213.44764575579</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9893,7 +10347,7 @@
         <v>-23215.44764575579</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9926,7 +10380,7 @@
         <v>-24477.94354575579</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9959,7 +10413,7 @@
         <v>-24500.14354575579</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9992,7 +10446,7 @@
         <v>12471.06125424421</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10025,7 +10479,7 @@
         <v>12468.86125424421</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10058,7 +10512,7 @@
         <v>11764.27615424421</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10289,7 +10743,7 @@
         <v>988.1567542442052</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10322,7 +10776,7 @@
         <v>3764.052154244205</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10355,7 +10809,7 @@
         <v>3761.952154244205</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10388,7 +10842,7 @@
         <v>10409.95215424421</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10421,7 +10875,7 @@
         <v>10409.95215424421</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10454,7 +10908,7 @@
         <v>-1489.036645755794</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10487,7 +10941,7 @@
         <v>-1507.326645755794</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10520,7 +10974,7 @@
         <v>-3571.700545755794</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10553,7 +11007,7 @@
         <v>-3541.255745755794</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10586,7 +11040,7 @@
         <v>-3641.255745755794</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10652,7 +11106,7 @@
         <v>-5756.360345755794</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10685,7 +11139,7 @@
         <v>-3205.305245755794</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10718,7 +11172,7 @@
         <v>-5016.074645755793</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10751,7 +11205,7 @@
         <v>-4991.578645755793</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10784,7 +11238,7 @@
         <v>-4991.578645755793</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10817,7 +11271,7 @@
         <v>-4591.578645755793</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10850,7 +11304,7 @@
         <v>889.5076542442066</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11048,7 +11502,7 @@
         <v>4338.821654244207</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11081,7 +11535,7 @@
         <v>4448.737654244207</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11114,7 +11568,7 @@
         <v>4448.737654244207</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11246,7 +11700,7 @@
         <v>-69016.3724457558</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11345,7 +11799,7 @@
         <v>-77014.7646457558</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11378,7 +11832,7 @@
         <v>-77014.7646457558</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11873,7 +12327,7 @@
         <v>-31127.4983457558</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12566,7 +13020,7 @@
         <v>-30672.1606457558</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13160,7 +13614,7 @@
         <v>-13150.0138457558</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13193,7 +13647,7 @@
         <v>-13512.4723457558</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13226,7 +13680,7 @@
         <v>-9122.472345755796</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13259,7 +13713,7 @@
         <v>-9122.472345755796</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13292,7 +13746,7 @@
         <v>-8718.351145755796</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13325,7 +13779,7 @@
         <v>-8718.351145755796</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13358,7 +13812,7 @@
         <v>-8733.351145755796</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13391,7 +13845,7 @@
         <v>-7833.351145755796</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13424,7 +13878,7 @@
         <v>-7938.458445755796</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13457,7 +13911,7 @@
         <v>-7802.020577937899</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13490,7 +13944,7 @@
         <v>-36195.9458779379</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13523,7 +13977,7 @@
         <v>-36002.0938779379</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13556,7 +14010,7 @@
         <v>-36421.5038779379</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13589,7 +14043,7 @@
         <v>-37826.4949779379</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13622,7 +14076,7 @@
         <v>-37763.7899779379</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13655,7 +14109,7 @@
         <v>-25963.7899779379</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13688,7 +14142,7 @@
         <v>-25963.7899779379</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13721,7 +14175,7 @@
         <v>-24047.7862779379</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13754,7 +14208,7 @@
         <v>-25963.7899779379</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13787,7 +14241,7 @@
         <v>-21563.7899779379</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13820,7 +14274,7 @@
         <v>-21563.7899779379</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13853,7 +14307,7 @@
         <v>-31418.2498779379</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13886,7 +14340,7 @@
         <v>-30131.4861779379</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13919,7 +14373,7 @@
         <v>-30183.5561779379</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13952,7 +14406,7 @@
         <v>-30183.5561779379</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13985,7 +14439,7 @@
         <v>-30153.5561779379</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14018,7 +14472,7 @@
         <v>-35545.3704779379</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14051,7 +14505,7 @@
         <v>-31790.9103779379</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14084,7 +14538,7 @@
         <v>-33790.91037793791</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14117,7 +14571,7 @@
         <v>-32790.91037793791</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14150,7 +14604,7 @@
         <v>-32990.91037793791</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14183,7 +14637,7 @@
         <v>-33590.91037793791</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14216,7 +14670,7 @@
         <v>-35763.25557793791</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14249,7 +14703,7 @@
         <v>-31072.26687793791</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14282,7 +14736,7 @@
         <v>-30745.52997793791</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14315,7 +14769,7 @@
         <v>-31289.88197793791</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14348,7 +14802,7 @@
         <v>-32917.87517793791</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14381,7 +14835,7 @@
         <v>-32917.87517793791</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14414,7 +14868,7 @@
         <v>-32725.97937793791</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14447,7 +14901,7 @@
         <v>-32725.97937793791</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14480,7 +14934,7 @@
         <v>-31288.37767793791</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14513,7 +14967,7 @@
         <v>-31188.37767793791</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14546,7 +15000,7 @@
         <v>-29038.37767793791</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14579,7 +15033,7 @@
         <v>-26712.66985689736</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14612,7 +15066,7 @@
         <v>-26712.66985689736</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14645,7 +15099,7 @@
         <v>-25721.91185689736</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14678,7 +15132,7 @@
         <v>-25721.91185689736</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14711,7 +15165,7 @@
         <v>-27721.91185689736</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14744,7 +15198,7 @@
         <v>-27013.91185689736</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14777,7 +15231,7 @@
         <v>-27013.91185689736</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14810,7 +15264,7 @@
         <v>-27013.91185689736</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14843,7 +15297,7 @@
         <v>-30951.52505689736</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14876,7 +15330,7 @@
         <v>-30086.96755689736</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14909,7 +15363,7 @@
         <v>-70086.96755689736</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14942,7 +15396,7 @@
         <v>-66975.65885689737</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14975,7 +15429,7 @@
         <v>-66073.49655689737</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15008,7 +15462,7 @@
         <v>-63288.73292704946</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15041,7 +15495,7 @@
         <v>-63366.03117742998</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15074,7 +15528,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15107,7 +15561,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15140,7 +15594,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15173,7 +15627,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15206,7 +15660,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15239,7 +15693,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15272,7 +15726,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15305,7 +15759,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15338,7 +15792,7 @@
         <v>-54130.97177742997</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15371,7 +15825,7 @@
         <v>-52130.97177742997</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15404,7 +15858,7 @@
         <v>-49420.93627742997</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15437,7 +15891,7 @@
         <v>-50285.49377742998</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15470,7 +15924,7 @@
         <v>-47960.22697742998</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15503,7 +15957,7 @@
         <v>-58719.72607742998</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15536,7 +15990,7 @@
         <v>-58719.72607742998</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15569,7 +16023,7 @@
         <v>-58719.72607742998</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15602,7 +16056,7 @@
         <v>-59719.72607742998</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15635,7 +16089,7 @@
         <v>-61319.72607742998</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15668,7 +16122,7 @@
         <v>-61319.72607742998</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15701,7 +16155,7 @@
         <v>-26201.10817742998</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15734,7 +16188,7 @@
         <v>-34444.10817742998</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15767,7 +16221,7 @@
         <v>-34494.10817742998</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15800,7 +16254,7 @@
         <v>-31239.49487742998</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15877,6 +16331,6 @@
       <c r="M437" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest BAT.xlsx
+++ b/BackTest/2020-01-16 BackTest BAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-52897.41684285315</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-49978.73704285315</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>220.6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>220.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-44905.00064285315</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>221.1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>220.6</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-45088.27324285315</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>222.3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>220.6</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>-45266.72394285315</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>221.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,2771 +616,2327 @@
         <v>-53316.88354285315</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>221.5</v>
-      </c>
-      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>220.1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>220.1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>220.1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>220.1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>178.4054</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-53495.28894285315</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>220.3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>220.3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>220.3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>220.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>230.8921</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-53264.39684285315</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>220</v>
+      </c>
+      <c r="C10" t="n">
+        <v>220</v>
+      </c>
+      <c r="D10" t="n">
+        <v>220</v>
+      </c>
+      <c r="E10" t="n">
+        <v>220</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3688.5199</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-56952.91674285315</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
         <v>221.8</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="C11" t="n">
+        <v>223.6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>223.6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>600</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-56352.91674285315</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>221.4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>220</v>
+      </c>
+      <c r="D12" t="n">
+        <v>221.4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>220</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2500.9009</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-58853.81764285315</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>221.6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>221.6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>221.6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>221.6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>98.2852</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-58755.53244285315</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>221.2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>221.1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>221.2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>221.1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>542.1174999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-59297.64994285315</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>220.6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>221.3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>221.4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>220.6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>659.6073</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-58638.04264285315</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>220.3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>219.5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>220.3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>219.5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9207.9763</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-67846.01894285314</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>220.8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>220.8</v>
+      </c>
+      <c r="D17" t="n">
+        <v>220.8</v>
+      </c>
+      <c r="E17" t="n">
+        <v>220.8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>301.9999</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-67544.01904285315</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>224.2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>224.7</v>
+      </c>
+      <c r="D18" t="n">
+        <v>224.7</v>
+      </c>
+      <c r="E18" t="n">
+        <v>224.2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>600</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-66944.01904285315</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>223.3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>223.3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>223.3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>223.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-68544.01904285315</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>226.2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>226.3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>226.3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>226.2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>400</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-68144.01904285315</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>225.8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>225.8</v>
+      </c>
+      <c r="D21" t="n">
+        <v>225.8</v>
+      </c>
+      <c r="E21" t="n">
+        <v>225.8</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2283.2282</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-70427.24724285315</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>226</v>
+      </c>
+      <c r="C22" t="n">
+        <v>226</v>
+      </c>
+      <c r="D22" t="n">
+        <v>226</v>
+      </c>
+      <c r="E22" t="n">
+        <v>226</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7979.4615</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-62447.78574285315</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>225.8</v>
+      </c>
+      <c r="C23" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>225.8</v>
+      </c>
+      <c r="E23" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>405.0867</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-62852.87244285315</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>225.1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>873.7403</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-63726.61274285315</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="C25" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="D25" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>251.242</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-63726.61274285315</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>50.84</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-63675.77274285315</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>225.7</v>
+      </c>
+      <c r="C27" t="n">
+        <v>226</v>
+      </c>
+      <c r="D27" t="n">
+        <v>226</v>
+      </c>
+      <c r="E27" t="n">
+        <v>225.7</v>
+      </c>
+      <c r="F27" t="n">
+        <v>77520.2194</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-141195.9921428532</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>464.1392</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-140731.8529428531</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>226.1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>6</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-140737.8529428531</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>225.2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>76.5762</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-140737.8529428531</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="C31" t="n">
+        <v>224.3</v>
+      </c>
+      <c r="D31" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="E31" t="n">
+        <v>224.3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1987.87</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-142725.7229428531</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="D32" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2373.3149</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-140352.4080428531</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>226.3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>226.3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>226.3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>226.3</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2267.2701</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-138085.1379428532</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>226.3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>226.3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>226.3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>226.3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>9098.563399999999</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-138085.1379428532</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>226.3</v>
+      </c>
+      <c r="C35" t="n">
+        <v>226.3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>226.3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>226.3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>5337.1692</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-138085.1379428532</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>226.3</v>
+      </c>
+      <c r="C36" t="n">
+        <v>226.3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>226.3</v>
+      </c>
+      <c r="E36" t="n">
+        <v>226.3</v>
+      </c>
+      <c r="F36" t="n">
+        <v>37873.6811</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-138085.1379428532</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>227.4</v>
+      </c>
+      <c r="C37" t="n">
+        <v>227.4</v>
+      </c>
+      <c r="D37" t="n">
+        <v>227.4</v>
+      </c>
+      <c r="E37" t="n">
+        <v>227.4</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2061.6875</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-136023.4504428532</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="F38" t="n">
+        <v>941.2823</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-135082.1681428532</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>226.9</v>
+      </c>
+      <c r="C39" t="n">
+        <v>226.9</v>
+      </c>
+      <c r="D39" t="n">
+        <v>226.9</v>
+      </c>
+      <c r="E39" t="n">
+        <v>226.9</v>
+      </c>
+      <c r="F39" t="n">
+        <v>141.0379</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-135223.2060428532</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="D40" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1904.8512</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-133318.3548428532</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="C41" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="D41" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2439.8991</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-133318.3548428532</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="D42" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1267.3802</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-133318.3548428532</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="C43" t="n">
+        <v>227.7</v>
+      </c>
+      <c r="D43" t="n">
+        <v>227.7</v>
+      </c>
+      <c r="E43" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="F43" t="n">
+        <v>804.2824000000001</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-132514.0724428532</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>227.7</v>
+      </c>
+      <c r="C44" t="n">
+        <v>227.7</v>
+      </c>
+      <c r="D44" t="n">
+        <v>227.7</v>
+      </c>
+      <c r="E44" t="n">
+        <v>227.7</v>
+      </c>
+      <c r="F44" t="n">
+        <v>32.0764</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-132514.0724428532</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>228</v>
+      </c>
+      <c r="C45" t="n">
+        <v>228</v>
+      </c>
+      <c r="D45" t="n">
+        <v>228</v>
+      </c>
+      <c r="E45" t="n">
+        <v>228</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2423.2068</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-130090.8656428532</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>227.7</v>
+      </c>
+      <c r="C46" t="n">
+        <v>227.7</v>
+      </c>
+      <c r="D46" t="n">
+        <v>227.7</v>
+      </c>
+      <c r="E46" t="n">
+        <v>227.7</v>
+      </c>
+      <c r="F46" t="n">
+        <v>64.75490000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-130155.6205428532</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>228</v>
+      </c>
+      <c r="C47" t="n">
+        <v>228</v>
+      </c>
+      <c r="D47" t="n">
+        <v>228</v>
+      </c>
+      <c r="E47" t="n">
+        <v>228</v>
+      </c>
+      <c r="F47" t="n">
+        <v>603.109</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-129552.5115428532</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>229</v>
+      </c>
+      <c r="C48" t="n">
+        <v>229</v>
+      </c>
+      <c r="D48" t="n">
+        <v>229</v>
+      </c>
+      <c r="E48" t="n">
+        <v>229</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3.2644</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-129549.2471428532</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="C49" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="D49" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="E49" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="F49" t="n">
+        <v>3949.6789</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-133498.9260428532</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="C50" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="D50" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="E50" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="F50" t="n">
+        <v>639.41</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-133498.9260428532</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>229</v>
+      </c>
+      <c r="C51" t="n">
+        <v>229</v>
+      </c>
+      <c r="D51" t="n">
+        <v>229</v>
+      </c>
+      <c r="E51" t="n">
+        <v>229</v>
+      </c>
+      <c r="F51" t="n">
+        <v>8721.0746</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-124777.8514428532</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>229</v>
+      </c>
+      <c r="C52" t="n">
+        <v>229</v>
+      </c>
+      <c r="D52" t="n">
+        <v>229</v>
+      </c>
+      <c r="E52" t="n">
+        <v>229</v>
+      </c>
+      <c r="F52" t="n">
+        <v>588.8587</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-124777.8514428532</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>229.2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>229.2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>229.2</v>
+      </c>
+      <c r="E53" t="n">
+        <v>229.2</v>
+      </c>
+      <c r="F53" t="n">
+        <v>136.5091</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-124641.3423428532</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>229.2</v>
+      </c>
+      <c r="C54" t="n">
+        <v>229.3</v>
+      </c>
+      <c r="D54" t="n">
+        <v>229.3</v>
+      </c>
+      <c r="E54" t="n">
+        <v>229.2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>894.1377</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-123747.2046428532</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>229.4</v>
+      </c>
+      <c r="C55" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="D55" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="E55" t="n">
+        <v>229.4</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3023.052</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-120724.1526428532</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>230</v>
+      </c>
+      <c r="C56" t="n">
+        <v>230</v>
+      </c>
+      <c r="D56" t="n">
+        <v>230</v>
+      </c>
+      <c r="E56" t="n">
+        <v>230</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1840.9453</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-118883.2073428532</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>229.7</v>
+      </c>
+      <c r="C57" t="n">
+        <v>230.6</v>
+      </c>
+      <c r="D57" t="n">
+        <v>230.6</v>
+      </c>
+      <c r="E57" t="n">
+        <v>229.4</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3186.90826773634</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-115696.2990751168</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>230.6</v>
+      </c>
+      <c r="C58" t="n">
+        <v>230.7</v>
+      </c>
+      <c r="D58" t="n">
+        <v>230.7</v>
+      </c>
+      <c r="E58" t="n">
+        <v>230.6</v>
+      </c>
+      <c r="F58" t="n">
+        <v>153.5319</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-115542.7671751168</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>230.7</v>
+      </c>
+      <c r="C59" t="n">
+        <v>231.1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>231.1</v>
+      </c>
+      <c r="E59" t="n">
+        <v>230.7</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2259.223575057307</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-113283.5436000595</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>231.5</v>
+      </c>
+      <c r="C60" t="n">
+        <v>231.5</v>
+      </c>
+      <c r="D60" t="n">
+        <v>231.5</v>
+      </c>
+      <c r="E60" t="n">
+        <v>231.5</v>
+      </c>
+      <c r="F60" t="n">
+        <v>8856.611999999999</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-104426.9316000595</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>231.5</v>
+      </c>
+      <c r="C61" t="n">
+        <v>231.5</v>
+      </c>
+      <c r="D61" t="n">
+        <v>231.5</v>
+      </c>
+      <c r="E61" t="n">
+        <v>231.5</v>
+      </c>
+      <c r="F61" t="n">
+        <v>500</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-104426.9316000595</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="C62" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="D62" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="E62" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1104.1399</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-103322.7917000595</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="C63" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="D63" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="E63" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="F63" t="n">
+        <v>55</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-103377.7917000595</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="C64" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="D64" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="E64" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="F64" t="n">
+        <v>6.959</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-103377.7917000595</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>230.1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="D65" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="E65" t="n">
+        <v>230</v>
+      </c>
+      <c r="F65" t="n">
+        <v>9691.4722</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-93686.31950005953</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="C66" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="D66" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="E66" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="F66" t="n">
+        <v>200</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-93686.31950005953</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="C67" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="D67" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="E67" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="F67" t="n">
+        <v>8</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-93686.31950005953</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="C68" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="D68" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="E68" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2389.3216</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-93686.31950005953</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>232</v>
+      </c>
+      <c r="C69" t="n">
+        <v>232</v>
+      </c>
+      <c r="D69" t="n">
+        <v>232</v>
+      </c>
+      <c r="E69" t="n">
+        <v>232</v>
+      </c>
+      <c r="F69" t="n">
+        <v>3530.7468</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-90155.57270005954</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>232</v>
+      </c>
+      <c r="C70" t="n">
+        <v>232</v>
+      </c>
+      <c r="D70" t="n">
+        <v>232</v>
+      </c>
+      <c r="E70" t="n">
+        <v>232</v>
+      </c>
+      <c r="F70" t="n">
+        <v>865.6913</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-90155.57270005954</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>232</v>
+      </c>
+      <c r="C71" t="n">
+        <v>232</v>
+      </c>
+      <c r="D71" t="n">
+        <v>232</v>
+      </c>
+      <c r="E71" t="n">
+        <v>232</v>
+      </c>
+      <c r="F71" t="n">
+        <v>5693.9368</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-90155.57270005954</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>232.5</v>
+      </c>
+      <c r="C72" t="n">
+        <v>231.6</v>
+      </c>
+      <c r="D72" t="n">
+        <v>232.6</v>
+      </c>
+      <c r="E72" t="n">
+        <v>231.6</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3109.088</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-93264.66070005954</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>232.6</v>
+      </c>
+      <c r="C73" t="n">
+        <v>232.6</v>
+      </c>
+      <c r="D73" t="n">
+        <v>232.6</v>
+      </c>
+      <c r="E73" t="n">
+        <v>232.6</v>
+      </c>
+      <c r="F73" t="n">
+        <v>3810.1429</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-89454.51780005953</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>232.6</v>
+      </c>
+      <c r="C74" t="n">
+        <v>231.7</v>
+      </c>
+      <c r="D74" t="n">
+        <v>232.6</v>
+      </c>
+      <c r="E74" t="n">
+        <v>231.7</v>
+      </c>
+      <c r="F74" t="n">
+        <v>698.2055</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-90152.72330005953</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>232.6</v>
+      </c>
+      <c r="C75" t="n">
+        <v>232.6</v>
+      </c>
+      <c r="D75" t="n">
+        <v>232.6</v>
+      </c>
+      <c r="E75" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1569.469</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-88583.25430005953</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>232.6</v>
+      </c>
+      <c r="C76" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="D76" t="n">
+        <v>232.6</v>
+      </c>
+      <c r="E76" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="F76" t="n">
+        <v>313.3228</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-88896.57710005953</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>231.7</v>
+      </c>
+      <c r="C77" t="n">
+        <v>231.5</v>
+      </c>
+      <c r="D77" t="n">
+        <v>231.7</v>
+      </c>
+      <c r="E77" t="n">
+        <v>231.5</v>
+      </c>
+      <c r="F77" t="n">
+        <v>354.0639</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-89250.64100005952</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>220.1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>220.1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>220.1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>220.1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>178.4054</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-53495.28894285315</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>221</v>
-      </c>
-      <c r="J8" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>220.3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>220.3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>220.3</v>
-      </c>
-      <c r="E9" t="n">
-        <v>220.3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>230.8921</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-53264.39684285315</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>220.1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>220</v>
-      </c>
-      <c r="C10" t="n">
-        <v>220</v>
-      </c>
-      <c r="D10" t="n">
-        <v>220</v>
-      </c>
-      <c r="E10" t="n">
-        <v>220</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3688.5199</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-56952.91674285315</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="C11" t="n">
-        <v>223.6</v>
-      </c>
-      <c r="D11" t="n">
-        <v>223.6</v>
-      </c>
-      <c r="E11" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="F11" t="n">
-        <v>600</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-56352.91674285315</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>221.4</v>
-      </c>
-      <c r="C12" t="n">
-        <v>220</v>
-      </c>
-      <c r="D12" t="n">
-        <v>221.4</v>
-      </c>
-      <c r="E12" t="n">
-        <v>220</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2500.9009</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-58853.81764285315</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>221.6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>221.6</v>
-      </c>
-      <c r="D13" t="n">
-        <v>221.6</v>
-      </c>
-      <c r="E13" t="n">
-        <v>221.6</v>
-      </c>
-      <c r="F13" t="n">
-        <v>98.2852</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-58755.53244285315</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>221.2</v>
-      </c>
-      <c r="C14" t="n">
-        <v>221.1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>221.2</v>
-      </c>
-      <c r="E14" t="n">
-        <v>221.1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>542.1174999999999</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-59297.64994285315</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>220.6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>221.3</v>
-      </c>
-      <c r="D15" t="n">
-        <v>221.4</v>
-      </c>
-      <c r="E15" t="n">
-        <v>220.6</v>
-      </c>
-      <c r="F15" t="n">
-        <v>659.6073</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-58638.04264285315</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>220.3</v>
-      </c>
-      <c r="C16" t="n">
-        <v>219.5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>220.3</v>
-      </c>
-      <c r="E16" t="n">
-        <v>219.5</v>
-      </c>
-      <c r="F16" t="n">
-        <v>9207.9763</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-67846.01894285314</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>221.3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>220.8</v>
-      </c>
-      <c r="C17" t="n">
-        <v>220.8</v>
-      </c>
-      <c r="D17" t="n">
-        <v>220.8</v>
-      </c>
-      <c r="E17" t="n">
-        <v>220.8</v>
-      </c>
-      <c r="F17" t="n">
-        <v>301.9999</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-67544.01904285315</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>224.2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>224.7</v>
-      </c>
-      <c r="D18" t="n">
-        <v>224.7</v>
-      </c>
-      <c r="E18" t="n">
-        <v>224.2</v>
-      </c>
-      <c r="F18" t="n">
-        <v>600</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-66944.01904285315</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>223.3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>223.3</v>
-      </c>
-      <c r="D19" t="n">
-        <v>223.3</v>
-      </c>
-      <c r="E19" t="n">
-        <v>223.3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-68544.01904285315</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>226.2</v>
-      </c>
-      <c r="C20" t="n">
-        <v>226.3</v>
-      </c>
-      <c r="D20" t="n">
-        <v>226.3</v>
-      </c>
-      <c r="E20" t="n">
-        <v>226.2</v>
-      </c>
-      <c r="F20" t="n">
-        <v>400</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-68144.01904285315</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>225.8</v>
-      </c>
-      <c r="C21" t="n">
-        <v>225.8</v>
-      </c>
-      <c r="D21" t="n">
-        <v>225.8</v>
-      </c>
-      <c r="E21" t="n">
-        <v>225.8</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2283.2282</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-70427.24724285315</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>226</v>
-      </c>
-      <c r="C22" t="n">
-        <v>226</v>
-      </c>
-      <c r="D22" t="n">
-        <v>226</v>
-      </c>
-      <c r="E22" t="n">
-        <v>226</v>
-      </c>
-      <c r="F22" t="n">
-        <v>7979.4615</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-62447.78574285315</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>225.8</v>
-      </c>
-      <c r="C23" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="D23" t="n">
-        <v>225.8</v>
-      </c>
-      <c r="E23" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="F23" t="n">
-        <v>405.0867</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-62852.87244285315</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="D24" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="F24" t="n">
-        <v>873.7403</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-63726.61274285315</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="C25" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="D25" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="E25" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="F25" t="n">
-        <v>251.242</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-63726.61274285315</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="C26" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="D26" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>50.84</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-63675.77274285315</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>225.7</v>
-      </c>
-      <c r="C27" t="n">
-        <v>226</v>
-      </c>
-      <c r="D27" t="n">
-        <v>226</v>
-      </c>
-      <c r="E27" t="n">
-        <v>225.7</v>
-      </c>
-      <c r="F27" t="n">
-        <v>77520.2194</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-141195.9921428532</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="C28" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="D28" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="F28" t="n">
-        <v>464.1392</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-140731.8529428531</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="C29" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="D29" t="n">
-        <v>226.1</v>
-      </c>
-      <c r="E29" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="F29" t="n">
-        <v>6</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-140737.8529428531</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="C30" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="D30" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="E30" t="n">
-        <v>225.2</v>
-      </c>
-      <c r="F30" t="n">
-        <v>76.5762</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-140737.8529428531</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="C31" t="n">
-        <v>224.3</v>
-      </c>
-      <c r="D31" t="n">
-        <v>224.4</v>
-      </c>
-      <c r="E31" t="n">
-        <v>224.3</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1987.87</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-142725.7229428531</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>225.5</v>
-      </c>
-      <c r="C32" t="n">
-        <v>225.5</v>
-      </c>
-      <c r="D32" t="n">
-        <v>225.5</v>
-      </c>
-      <c r="E32" t="n">
-        <v>225.5</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2373.3149</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-140352.4080428531</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>226.3</v>
-      </c>
-      <c r="C33" t="n">
-        <v>226.3</v>
-      </c>
-      <c r="D33" t="n">
-        <v>226.3</v>
-      </c>
-      <c r="E33" t="n">
-        <v>226.3</v>
-      </c>
-      <c r="F33" t="n">
-        <v>2267.2701</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-138085.1379428532</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>226.3</v>
-      </c>
-      <c r="C34" t="n">
-        <v>226.3</v>
-      </c>
-      <c r="D34" t="n">
-        <v>226.3</v>
-      </c>
-      <c r="E34" t="n">
-        <v>226.3</v>
-      </c>
-      <c r="F34" t="n">
-        <v>9098.563399999999</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-138085.1379428532</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>226.3</v>
-      </c>
-      <c r="C35" t="n">
-        <v>226.3</v>
-      </c>
-      <c r="D35" t="n">
-        <v>226.3</v>
-      </c>
-      <c r="E35" t="n">
-        <v>226.3</v>
-      </c>
-      <c r="F35" t="n">
-        <v>5337.1692</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-138085.1379428532</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>226.3</v>
-      </c>
-      <c r="C36" t="n">
-        <v>226.3</v>
-      </c>
-      <c r="D36" t="n">
-        <v>226.3</v>
-      </c>
-      <c r="E36" t="n">
-        <v>226.3</v>
-      </c>
-      <c r="F36" t="n">
-        <v>37873.6811</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-138085.1379428532</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>227.4</v>
-      </c>
-      <c r="C37" t="n">
-        <v>227.4</v>
-      </c>
-      <c r="D37" t="n">
-        <v>227.4</v>
-      </c>
-      <c r="E37" t="n">
-        <v>227.4</v>
-      </c>
-      <c r="F37" t="n">
-        <v>2061.6875</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-136023.4504428532</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="C38" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="D38" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="E38" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="F38" t="n">
-        <v>941.2823</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-135082.1681428532</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>226.9</v>
-      </c>
-      <c r="C39" t="n">
-        <v>226.9</v>
-      </c>
-      <c r="D39" t="n">
-        <v>226.9</v>
-      </c>
-      <c r="E39" t="n">
-        <v>226.9</v>
-      </c>
-      <c r="F39" t="n">
-        <v>141.0379</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-135223.2060428532</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="C40" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="D40" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="E40" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1904.8512</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-133318.3548428532</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="C41" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="D41" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="E41" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="F41" t="n">
-        <v>2439.8991</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-133318.3548428532</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="C42" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="D42" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="E42" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1267.3802</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-133318.3548428532</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="C43" t="n">
-        <v>227.7</v>
-      </c>
-      <c r="D43" t="n">
-        <v>227.7</v>
-      </c>
-      <c r="E43" t="n">
-        <v>227.5</v>
-      </c>
-      <c r="F43" t="n">
-        <v>804.2824000000001</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-132514.0724428532</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>227.7</v>
-      </c>
-      <c r="C44" t="n">
-        <v>227.7</v>
-      </c>
-      <c r="D44" t="n">
-        <v>227.7</v>
-      </c>
-      <c r="E44" t="n">
-        <v>227.7</v>
-      </c>
-      <c r="F44" t="n">
-        <v>32.0764</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-132514.0724428532</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>227.7</v>
-      </c>
-      <c r="J44" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>228</v>
-      </c>
-      <c r="C45" t="n">
-        <v>228</v>
-      </c>
-      <c r="D45" t="n">
-        <v>228</v>
-      </c>
-      <c r="E45" t="n">
-        <v>228</v>
-      </c>
-      <c r="F45" t="n">
-        <v>2423.2068</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-130090.8656428532</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>227.7</v>
-      </c>
-      <c r="J45" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>227.7</v>
-      </c>
-      <c r="C46" t="n">
-        <v>227.7</v>
-      </c>
-      <c r="D46" t="n">
-        <v>227.7</v>
-      </c>
-      <c r="E46" t="n">
-        <v>227.7</v>
-      </c>
-      <c r="F46" t="n">
-        <v>64.75490000000001</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-130155.6205428532</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>228</v>
-      </c>
-      <c r="C47" t="n">
-        <v>228</v>
-      </c>
-      <c r="D47" t="n">
-        <v>228</v>
-      </c>
-      <c r="E47" t="n">
-        <v>228</v>
-      </c>
-      <c r="F47" t="n">
-        <v>603.109</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-129552.5115428532</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>229</v>
-      </c>
-      <c r="C48" t="n">
-        <v>229</v>
-      </c>
-      <c r="D48" t="n">
-        <v>229</v>
-      </c>
-      <c r="E48" t="n">
-        <v>229</v>
-      </c>
-      <c r="F48" t="n">
-        <v>3.2644</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-129549.2471428532</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>228</v>
-      </c>
-      <c r="J48" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="C49" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="D49" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="E49" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="F49" t="n">
-        <v>3949.6789</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-133498.9260428532</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="C50" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="D50" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="E50" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="F50" t="n">
-        <v>639.41</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-133498.9260428532</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>229</v>
-      </c>
-      <c r="C51" t="n">
-        <v>229</v>
-      </c>
-      <c r="D51" t="n">
-        <v>229</v>
-      </c>
-      <c r="E51" t="n">
-        <v>229</v>
-      </c>
-      <c r="F51" t="n">
-        <v>8721.0746</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-124777.8514428532</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>229</v>
-      </c>
-      <c r="C52" t="n">
-        <v>229</v>
-      </c>
-      <c r="D52" t="n">
-        <v>229</v>
-      </c>
-      <c r="E52" t="n">
-        <v>229</v>
-      </c>
-      <c r="F52" t="n">
-        <v>588.8587</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-124777.8514428532</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>229</v>
-      </c>
-      <c r="J52" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>229.2</v>
-      </c>
-      <c r="C53" t="n">
-        <v>229.2</v>
-      </c>
-      <c r="D53" t="n">
-        <v>229.2</v>
-      </c>
-      <c r="E53" t="n">
-        <v>229.2</v>
-      </c>
-      <c r="F53" t="n">
-        <v>136.5091</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-124641.3423428532</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>229.2</v>
-      </c>
-      <c r="C54" t="n">
-        <v>229.3</v>
-      </c>
-      <c r="D54" t="n">
-        <v>229.3</v>
-      </c>
-      <c r="E54" t="n">
-        <v>229.2</v>
-      </c>
-      <c r="F54" t="n">
-        <v>894.1377</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-123747.2046428532</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>229.4</v>
-      </c>
-      <c r="C55" t="n">
-        <v>229.9</v>
-      </c>
-      <c r="D55" t="n">
-        <v>229.9</v>
-      </c>
-      <c r="E55" t="n">
-        <v>229.4</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3023.052</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-120724.1526428532</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>230</v>
-      </c>
-      <c r="C56" t="n">
-        <v>230</v>
-      </c>
-      <c r="D56" t="n">
-        <v>230</v>
-      </c>
-      <c r="E56" t="n">
-        <v>230</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1840.9453</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-118883.2073428532</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>229.9</v>
-      </c>
-      <c r="J56" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>229.7</v>
-      </c>
-      <c r="C57" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="D57" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="E57" t="n">
-        <v>229.4</v>
-      </c>
-      <c r="F57" t="n">
-        <v>3186.90826773634</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-115696.2990751168</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="C58" t="n">
-        <v>230.7</v>
-      </c>
-      <c r="D58" t="n">
-        <v>230.7</v>
-      </c>
-      <c r="E58" t="n">
-        <v>230.6</v>
-      </c>
-      <c r="F58" t="n">
-        <v>153.5319</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-115542.7671751168</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>230.7</v>
-      </c>
-      <c r="C59" t="n">
-        <v>231.1</v>
-      </c>
-      <c r="D59" t="n">
-        <v>231.1</v>
-      </c>
-      <c r="E59" t="n">
-        <v>230.7</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2259.223575057307</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-113283.5436000595</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>231.5</v>
-      </c>
-      <c r="C60" t="n">
-        <v>231.5</v>
-      </c>
-      <c r="D60" t="n">
-        <v>231.5</v>
-      </c>
-      <c r="E60" t="n">
-        <v>231.5</v>
-      </c>
-      <c r="F60" t="n">
-        <v>8856.611999999999</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-104426.9316000595</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>231.5</v>
-      </c>
-      <c r="C61" t="n">
-        <v>231.5</v>
-      </c>
-      <c r="D61" t="n">
-        <v>231.5</v>
-      </c>
-      <c r="E61" t="n">
-        <v>231.5</v>
-      </c>
-      <c r="F61" t="n">
-        <v>500</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-104426.9316000595</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>229.9</v>
-      </c>
-      <c r="C62" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="D62" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="E62" t="n">
-        <v>229.9</v>
-      </c>
-      <c r="F62" t="n">
-        <v>1104.1399</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-103322.7917000595</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>229.9</v>
-      </c>
-      <c r="C63" t="n">
-        <v>229.9</v>
-      </c>
-      <c r="D63" t="n">
-        <v>229.9</v>
-      </c>
-      <c r="E63" t="n">
-        <v>229.9</v>
-      </c>
-      <c r="F63" t="n">
-        <v>55</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-103377.7917000595</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>229.9</v>
-      </c>
-      <c r="C64" t="n">
-        <v>229.9</v>
-      </c>
-      <c r="D64" t="n">
-        <v>229.9</v>
-      </c>
-      <c r="E64" t="n">
-        <v>229.9</v>
-      </c>
-      <c r="F64" t="n">
-        <v>6.959</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-103377.7917000595</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>229.9</v>
-      </c>
-      <c r="J64" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>230.1</v>
-      </c>
-      <c r="C65" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="D65" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="E65" t="n">
-        <v>230</v>
-      </c>
-      <c r="F65" t="n">
-        <v>9691.4722</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-93686.31950005953</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="C66" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="D66" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="E66" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="F66" t="n">
-        <v>200</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-93686.31950005953</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="J66" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="C67" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="D67" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="E67" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="F67" t="n">
-        <v>8</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-93686.31950005953</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="C68" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="D68" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="E68" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2389.3216</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-93686.31950005953</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>232</v>
-      </c>
-      <c r="C69" t="n">
-        <v>232</v>
-      </c>
-      <c r="D69" t="n">
-        <v>232</v>
-      </c>
-      <c r="E69" t="n">
-        <v>232</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3530.7468</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-90155.57270005954</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>232</v>
-      </c>
-      <c r="C70" t="n">
-        <v>232</v>
-      </c>
-      <c r="D70" t="n">
-        <v>232</v>
-      </c>
-      <c r="E70" t="n">
-        <v>232</v>
-      </c>
-      <c r="F70" t="n">
-        <v>865.6913</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-90155.57270005954</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>232</v>
-      </c>
-      <c r="C71" t="n">
-        <v>232</v>
-      </c>
-      <c r="D71" t="n">
-        <v>232</v>
-      </c>
-      <c r="E71" t="n">
-        <v>232</v>
-      </c>
-      <c r="F71" t="n">
-        <v>5693.9368</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-90155.57270005954</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>232.5</v>
-      </c>
-      <c r="C72" t="n">
-        <v>231.6</v>
-      </c>
-      <c r="D72" t="n">
-        <v>232.6</v>
-      </c>
-      <c r="E72" t="n">
-        <v>231.6</v>
-      </c>
-      <c r="F72" t="n">
-        <v>3109.088</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-93264.66070005954</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>232.6</v>
-      </c>
-      <c r="C73" t="n">
-        <v>232.6</v>
-      </c>
-      <c r="D73" t="n">
-        <v>232.6</v>
-      </c>
-      <c r="E73" t="n">
-        <v>232.6</v>
-      </c>
-      <c r="F73" t="n">
-        <v>3810.1429</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-89454.51780005953</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>232.6</v>
-      </c>
-      <c r="C74" t="n">
-        <v>231.7</v>
-      </c>
-      <c r="D74" t="n">
-        <v>232.6</v>
-      </c>
-      <c r="E74" t="n">
-        <v>231.7</v>
-      </c>
-      <c r="F74" t="n">
-        <v>698.2055</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-90152.72330005953</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>232.6</v>
-      </c>
-      <c r="C75" t="n">
-        <v>232.6</v>
-      </c>
-      <c r="D75" t="n">
-        <v>232.6</v>
-      </c>
-      <c r="E75" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="F75" t="n">
-        <v>1569.469</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-88583.25430005953</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>232.6</v>
-      </c>
-      <c r="C76" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="D76" t="n">
-        <v>232.6</v>
-      </c>
-      <c r="E76" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="F76" t="n">
-        <v>313.3228</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-88896.57710005953</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>231.7</v>
-      </c>
-      <c r="C77" t="n">
-        <v>231.5</v>
-      </c>
-      <c r="D77" t="n">
-        <v>231.7</v>
-      </c>
-      <c r="E77" t="n">
-        <v>231.5</v>
-      </c>
-      <c r="F77" t="n">
-        <v>354.0639</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-89250.64100005952</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3433,12 +2965,12 @@
         <v>-89510.63600005952</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>221.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>231.5</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3472,12 +3004,12 @@
         <v>-87271.38600005952</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>221.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>231.4</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3511,12 +3043,12 @@
         <v>-82234.68720005952</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>221.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>232</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3550,12 +3082,12 @@
         <v>-78637.92990005952</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>221.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>233.7</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3589,12 +3121,12 @@
         <v>-82278.05030005952</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>221.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>234.8</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3628,12 +3160,12 @@
         <v>-82278.05030005952</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>221.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>234</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3667,12 +3199,12 @@
         <v>-82984.05030005952</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>221.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>234</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3706,12 +3238,12 @@
         <v>-77203.38620005953</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>221.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>233.7</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3745,12 +3277,12 @@
         <v>-77206.38620005953</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>221.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>235</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3784,12 +3316,12 @@
         <v>-74431.22210005953</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>221.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>233.7</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3823,12 +3355,12 @@
         <v>-67105.67620005953</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>221.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>234.8</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3862,12 +3394,12 @@
         <v>-67105.67620005953</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>221.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>235</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3901,12 +3433,12 @@
         <v>-67084.67620005953</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>221.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>235</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3940,12 +3472,12 @@
         <v>-67102.67620005953</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>221.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>236.1</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3979,12 +3511,12 @@
         <v>-67102.67620005953</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>221.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>235</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4018,12 +3550,12 @@
         <v>-67073.67620005953</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>221.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>235</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4057,12 +3589,12 @@
         <v>-62009.74760005953</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>221.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>235.2</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4096,20 +3628,16 @@
         <v>-63447.29090005953</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>221.8</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
@@ -4135,17 +3663,11 @@
         <v>-63447.29090005953</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4174,17 +3696,11 @@
         <v>-56085.98950005953</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4213,17 +3729,11 @@
         <v>-56290.98950005953</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4252,17 +3762,11 @@
         <v>-62071.65360005953</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4291,17 +3795,11 @@
         <v>-62071.65360005953</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4330,17 +3828,11 @@
         <v>-65278.39680005953</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4369,17 +3861,11 @@
         <v>-62211.89910005953</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4408,17 +3894,11 @@
         <v>-62211.89910005953</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4447,17 +3927,11 @@
         <v>-63330.23460005953</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4486,17 +3960,11 @@
         <v>-63328.41970005953</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4528,14 +3996,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4567,14 +4029,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4606,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4645,14 +4095,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4684,14 +4128,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4723,14 +4161,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4762,14 +4194,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4801,14 +4227,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4840,14 +4260,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4879,14 +4293,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4918,14 +4326,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4957,14 +4359,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4996,14 +4392,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5035,14 +4425,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5074,14 +4458,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5113,14 +4491,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5152,14 +4524,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5191,14 +4557,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5230,14 +4590,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5269,14 +4623,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5308,14 +4656,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5347,14 +4689,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5386,14 +4722,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5425,14 +4755,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5464,14 +4788,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5503,14 +4821,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5542,14 +4854,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5581,14 +4887,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5620,14 +4920,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5659,14 +4953,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5698,14 +4986,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5737,14 +5019,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5776,14 +5052,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5815,14 +5085,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5854,14 +5118,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5893,14 +5151,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5932,14 +5184,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5971,14 +5217,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6010,14 +5250,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6049,14 +5283,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6088,14 +5316,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6127,14 +5349,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6166,14 +5382,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6205,14 +5415,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6244,14 +5448,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6283,14 +5481,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6322,14 +5514,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6361,14 +5547,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6400,14 +5580,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6439,14 +5613,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6478,14 +5646,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6517,14 +5679,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6556,14 +5712,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6595,14 +5745,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6634,14 +5778,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6673,14 +5811,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6712,14 +5844,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6751,14 +5877,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6790,14 +5910,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6826,17 +5940,11 @@
         <v>-34588.11386728925</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6868,14 +5976,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6904,17 +6006,11 @@
         <v>-33059.11716728925</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6943,17 +6039,11 @@
         <v>-33059.11716728925</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6982,17 +6072,11 @@
         <v>-33059.11716728925</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7021,17 +6105,11 @@
         <v>-33059.11716728925</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7060,17 +6138,11 @@
         <v>-32390.91716728924</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7099,17 +6171,11 @@
         <v>-33137.09016728924</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7138,17 +6204,11 @@
         <v>13631.81963271076</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7177,17 +6237,11 @@
         <v>13627.41963271076</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7216,17 +6270,11 @@
         <v>22897.07853271076</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7255,17 +6303,11 @@
         <v>22892.87853271076</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7294,17 +6336,11 @@
         <v>23057.39483271076</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7333,17 +6369,11 @@
         <v>23068.09033271076</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7372,17 +6402,11 @@
         <v>28123.49783271076</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7411,17 +6435,11 @@
         <v>28123.49783271076</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7450,17 +6468,11 @@
         <v>27931.49783271076</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7489,17 +6501,11 @@
         <v>35563.43623271076</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7528,17 +6534,11 @@
         <v>34629.68323271076</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7567,17 +6567,11 @@
         <v>32229.68323271076</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7606,17 +6600,11 @@
         <v>31107.68323271076</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7645,17 +6633,11 @@
         <v>29691.29773271076</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7684,17 +6666,11 @@
         <v>29596.58393271076</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7723,17 +6699,11 @@
         <v>26062.61793271076</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7762,17 +6732,11 @@
         <v>11099.02323271076</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7804,14 +6768,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7843,14 +6801,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7882,14 +6834,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7921,14 +6867,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7960,14 +6900,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7999,14 +6933,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8035,17 +6963,11 @@
         <v>5518.409732710761</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8077,14 +6999,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8116,14 +7032,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8152,17 +7062,11 @@
         <v>5170.422332710761</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8191,17 +7095,11 @@
         <v>5474.123332710761</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8230,17 +7128,11 @@
         <v>6274.123332710761</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8269,17 +7161,11 @@
         <v>6274.123332710761</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8308,17 +7194,11 @@
         <v>6248.123332710761</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8347,17 +7227,11 @@
         <v>-2690.143667289239</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8386,17 +7260,11 @@
         <v>13659.68033271076</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8425,17 +7293,11 @@
         <v>21057.28283271076</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8464,17 +7326,11 @@
         <v>21057.28283271076</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8503,17 +7359,11 @@
         <v>17971.28283271076</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8542,17 +7392,11 @@
         <v>17971.28283271076</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8581,17 +7425,11 @@
         <v>17971.28283271076</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8620,17 +7458,11 @@
         <v>18042.98283271076</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8659,17 +7491,11 @@
         <v>18321.98283271076</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8698,17 +7524,11 @@
         <v>18467.02633271076</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8737,17 +7557,11 @@
         <v>21167.02633271076</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8776,17 +7590,11 @@
         <v>14194.00713271077</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8815,17 +7623,11 @@
         <v>14990.10183271076</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8854,17 +7656,11 @@
         <v>15081.82933271077</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8893,17 +7689,11 @@
         <v>15340.87643271077</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8932,17 +7722,11 @@
         <v>15100.87653271076</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8971,17 +7755,11 @@
         <v>18770.82313271076</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9010,17 +7788,11 @@
         <v>19560.86303271076</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9049,17 +7821,11 @@
         <v>10618.43873271076</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9088,17 +7854,11 @@
         <v>11055.49933271076</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9127,17 +7887,11 @@
         <v>10971.49933271076</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9166,17 +7920,11 @@
         <v>10654.49933271076</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9205,17 +7953,11 @@
         <v>15881.80133271076</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9244,17 +7986,11 @@
         <v>15797.80133271076</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9283,17 +8019,11 @@
         <v>15394.68103271076</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9322,17 +8052,11 @@
         <v>17458.80203271076</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9361,17 +8085,11 @@
         <v>19458.80203271076</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9400,17 +8118,11 @@
         <v>19458.80203271076</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9439,17 +8151,11 @@
         <v>21153.34773271076</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9478,17 +8184,11 @@
         <v>21153.34773271076</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9517,17 +8217,11 @@
         <v>7707.646932710761</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9556,17 +8250,11 @@
         <v>7451.99653271076</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9595,17 +8283,11 @@
         <v>-18428.65756728924</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9634,17 +8316,11 @@
         <v>-18428.65756728924</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9673,17 +8349,11 @@
         <v>-24193.98296728924</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9712,17 +8382,11 @@
         <v>-23693.98296728924</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9751,17 +8415,11 @@
         <v>-24914.4193457558</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9790,17 +8448,11 @@
         <v>-26147.0174457558</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9829,17 +8481,11 @@
         <v>-26503.13684575579</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9868,17 +8514,11 @@
         <v>-26611.7661457558</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9907,17 +8547,11 @@
         <v>-26111.7661457558</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9946,17 +8580,11 @@
         <v>-20711.7661457558</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9985,17 +8613,11 @@
         <v>-20711.7661457558</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10024,17 +8646,11 @@
         <v>-20711.7661457558</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10063,17 +8679,11 @@
         <v>-20711.7661457558</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10102,17 +8712,11 @@
         <v>-20711.7661457558</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10144,20 +8748,12 @@
         <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
-        <v>1.102303877366997</v>
-      </c>
-      <c r="M250" t="n">
-        <v>1.011332728921124</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10479,7 +9075,7 @@
         <v>12468.86125424421</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10512,7 +9108,7 @@
         <v>11764.27615424421</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10545,7 +9141,7 @@
         <v>-2550.068945755795</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10578,7 +9174,7 @@
         <v>-2552.368945755795</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -12228,7 +10824,7 @@
         <v>-40654.9560457558</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12261,7 +10857,7 @@
         <v>-40654.9560457558</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12294,7 +10890,7 @@
         <v>-38074.7733457558</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12327,7 +10923,7 @@
         <v>-31127.4983457558</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12360,7 +10956,7 @@
         <v>-31127.4983457558</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12393,7 +10989,7 @@
         <v>-31127.4983457558</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12426,7 +11022,7 @@
         <v>-31127.4983457558</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12459,7 +11055,7 @@
         <v>-31030.8424457558</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12492,7 +11088,7 @@
         <v>-29966.40484575579</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12525,7 +11121,7 @@
         <v>-29966.40484575579</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12558,7 +11154,7 @@
         <v>-30013.7763457558</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12591,7 +11187,7 @@
         <v>-30061.1478457558</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12624,7 +11220,7 @@
         <v>-30468.1148457558</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12657,7 +11253,7 @@
         <v>-29824.3780457558</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12690,7 +11286,7 @@
         <v>-29834.3780457558</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12723,7 +11319,7 @@
         <v>-36781.6530457558</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12756,7 +11352,7 @@
         <v>-36374.7155457558</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12789,7 +11385,7 @@
         <v>-36374.7155457558</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12822,7 +11418,7 @@
         <v>-36374.7155457558</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12855,7 +11451,7 @@
         <v>-36374.7155457558</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12954,7 +11550,7 @@
         <v>-30744.0265457558</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12987,7 +11583,7 @@
         <v>-30744.0265457558</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13053,7 +11649,7 @@
         <v>-30654.7678457558</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13086,7 +11682,7 @@
         <v>-30663.2584457558</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13119,7 +11715,7 @@
         <v>-30621.2584457558</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13152,7 +11748,7 @@
         <v>-19621.2584457558</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13185,7 +11781,7 @@
         <v>-19824.2877457558</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13218,7 +11814,7 @@
         <v>-19824.2877457558</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13251,7 +11847,7 @@
         <v>-19503.19144575579</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13284,7 +11880,7 @@
         <v>-14954.60704575579</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13779,7 +12375,7 @@
         <v>-8718.351145755796</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13845,7 +12441,7 @@
         <v>-7833.351145755796</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13878,7 +12474,7 @@
         <v>-7938.458445755796</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13911,7 +12507,7 @@
         <v>-7802.020577937899</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13944,7 +12540,7 @@
         <v>-36195.9458779379</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13977,7 +12573,7 @@
         <v>-36002.0938779379</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -14010,7 +12606,7 @@
         <v>-36421.5038779379</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14043,7 +12639,7 @@
         <v>-37826.4949779379</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14076,7 +12672,7 @@
         <v>-37763.7899779379</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14109,7 +12705,7 @@
         <v>-25963.7899779379</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14142,7 +12738,7 @@
         <v>-25963.7899779379</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14175,7 +12771,7 @@
         <v>-24047.7862779379</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14208,7 +12804,7 @@
         <v>-25963.7899779379</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14241,7 +12837,7 @@
         <v>-21563.7899779379</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14274,7 +12870,7 @@
         <v>-21563.7899779379</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14307,7 +12903,7 @@
         <v>-31418.2498779379</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14340,7 +12936,7 @@
         <v>-30131.4861779379</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14373,7 +12969,7 @@
         <v>-30183.5561779379</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14406,7 +13002,7 @@
         <v>-30183.5561779379</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14439,7 +13035,7 @@
         <v>-30153.5561779379</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14472,7 +13068,7 @@
         <v>-35545.3704779379</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14505,7 +13101,7 @@
         <v>-31790.9103779379</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14538,7 +13134,7 @@
         <v>-33790.91037793791</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14571,7 +13167,7 @@
         <v>-32790.91037793791</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14604,7 +13200,7 @@
         <v>-32990.91037793791</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14637,7 +13233,7 @@
         <v>-33590.91037793791</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14670,7 +13266,7 @@
         <v>-35763.25557793791</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14703,7 +13299,7 @@
         <v>-31072.26687793791</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14736,7 +13332,7 @@
         <v>-30745.52997793791</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14769,7 +13365,7 @@
         <v>-31289.88197793791</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14802,7 +13398,7 @@
         <v>-32917.87517793791</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14835,7 +13431,7 @@
         <v>-32917.87517793791</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14868,7 +13464,7 @@
         <v>-32725.97937793791</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14901,7 +13497,7 @@
         <v>-32725.97937793791</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14934,7 +13530,7 @@
         <v>-31288.37767793791</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14967,7 +13563,7 @@
         <v>-31188.37767793791</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15000,7 +13596,7 @@
         <v>-29038.37767793791</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15033,7 +13629,7 @@
         <v>-26712.66985689736</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15066,7 +13662,7 @@
         <v>-26712.66985689736</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15099,7 +13695,7 @@
         <v>-25721.91185689736</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15132,7 +13728,7 @@
         <v>-25721.91185689736</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15165,7 +13761,7 @@
         <v>-27721.91185689736</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15198,7 +13794,7 @@
         <v>-27013.91185689736</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15231,7 +13827,7 @@
         <v>-27013.91185689736</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15264,7 +13860,7 @@
         <v>-27013.91185689736</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15297,7 +13893,7 @@
         <v>-30951.52505689736</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15330,7 +13926,7 @@
         <v>-30086.96755689736</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15363,7 +13959,7 @@
         <v>-70086.96755689736</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15396,7 +13992,7 @@
         <v>-66975.65885689737</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15429,7 +14025,7 @@
         <v>-66073.49655689737</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15462,7 +14058,7 @@
         <v>-63288.73292704946</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15495,7 +14091,7 @@
         <v>-63366.03117742998</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15528,7 +14124,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15561,7 +14157,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15594,7 +14190,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15627,7 +14223,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15660,7 +14256,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15693,7 +14289,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15726,7 +14322,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15759,7 +14355,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15792,7 +14388,7 @@
         <v>-54130.97177742997</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15825,7 +14421,7 @@
         <v>-52130.97177742997</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15858,7 +14454,7 @@
         <v>-49420.93627742997</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15891,7 +14487,7 @@
         <v>-50285.49377742998</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15924,7 +14520,7 @@
         <v>-47960.22697742998</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15957,7 +14553,7 @@
         <v>-58719.72607742998</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15990,7 +14586,7 @@
         <v>-58719.72607742998</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16023,7 +14619,7 @@
         <v>-58719.72607742998</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16056,7 +14652,7 @@
         <v>-59719.72607742998</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16089,7 +14685,7 @@
         <v>-61319.72607742998</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16122,7 +14718,7 @@
         <v>-61319.72607742998</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16155,7 +14751,7 @@
         <v>-26201.10817742998</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16188,7 +14784,7 @@
         <v>-34444.10817742998</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16221,7 +14817,7 @@
         <v>-34494.10817742998</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16254,7 +14850,7 @@
         <v>-31239.49487742998</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16331,6 +14927,6 @@
       <c r="M437" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest BAT.xlsx
+++ b/BackTest/2020-01-16 BackTest BAT.xlsx
@@ -1507,10 +1507,14 @@
         <v>-138085.1379428532</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>226.3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>226.3</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
@@ -1543,8 +1547,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>226.3</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1586,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>226.3</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1936,10 +1952,14 @@
         <v>-129552.5115428532</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>227.7</v>
+      </c>
+      <c r="J47" t="n">
+        <v>227.7</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
@@ -1969,11 +1989,19 @@
         <v>-129549.2471428532</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>228</v>
+      </c>
+      <c r="J48" t="n">
+        <v>227.7</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2030,19 @@
         <v>-133498.9260428532</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>229</v>
+      </c>
+      <c r="J49" t="n">
+        <v>227.7</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,10 +2071,14 @@
         <v>-133498.9260428532</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="J50" t="n">
+        <v>228.8</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
@@ -2068,11 +2108,19 @@
         <v>-124777.8514428532</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="J51" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2149,19 @@
         <v>-124777.8514428532</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>229</v>
+      </c>
+      <c r="J52" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,10 +2190,14 @@
         <v>-124641.3423428532</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>229</v>
+      </c>
+      <c r="J53" t="n">
+        <v>229</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
@@ -2167,11 +2227,19 @@
         <v>-123747.2046428532</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>229.2</v>
+      </c>
+      <c r="J54" t="n">
+        <v>229</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2268,19 @@
         <v>-120724.1526428532</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>229.3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>229</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,10 +2309,14 @@
         <v>-118883.2073428532</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="J56" t="n">
+        <v>229.9</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
@@ -2266,11 +2346,19 @@
         <v>-115696.2990751168</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>230</v>
+      </c>
+      <c r="J57" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2387,19 @@
         <v>-115542.7671751168</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>230.6</v>
+      </c>
+      <c r="J58" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2428,19 @@
         <v>-113283.5436000595</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>230.7</v>
+      </c>
+      <c r="J59" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2469,19 @@
         <v>-104426.9316000595</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>231.1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2510,19 @@
         <v>-104426.9316000595</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>231.5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2551,19 @@
         <v>-103322.7917000595</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>231.5</v>
+      </c>
+      <c r="J62" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2592,19 @@
         <v>-103377.7917000595</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="J63" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2633,19 @@
         <v>-103377.7917000595</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="J64" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2674,19 @@
         <v>-93686.31950005953</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="J65" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2715,19 @@
         <v>-93686.31950005953</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="J66" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2756,19 @@
         <v>-93686.31950005953</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="J67" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2797,19 @@
         <v>-93686.31950005953</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="J68" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2838,19 @@
         <v>-90155.57270005954</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="J69" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2879,19 @@
         <v>-90155.57270005954</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>232</v>
+      </c>
+      <c r="J70" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2920,19 @@
         <v>-90155.57270005954</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>232</v>
+      </c>
+      <c r="J71" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +2961,19 @@
         <v>-93264.66070005954</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>232</v>
+      </c>
+      <c r="J72" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +3002,19 @@
         <v>-89454.51780005953</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>231.6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +3043,19 @@
         <v>-90152.72330005953</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>232.6</v>
+      </c>
+      <c r="J74" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +3084,19 @@
         <v>-88583.25430005953</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>231.7</v>
+      </c>
+      <c r="J75" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3128,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,15 +3164,15 @@
         <v>-89250.64100005952</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>231.8</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>229.9</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -2965,12 +3203,12 @@
         <v>-89510.63600005952</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>231.5</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>229.9</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3004,12 +3242,12 @@
         <v>-87271.38600005952</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>231.4</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>229.9</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3043,12 +3281,12 @@
         <v>-82234.68720005952</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>232</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>229.9</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3082,12 +3320,12 @@
         <v>-78637.92990005952</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>233.7</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>229.9</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3126,7 +3364,9 @@
       <c r="I82" t="n">
         <v>234.8</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>229.9</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3165,7 +3405,9 @@
       <c r="I83" t="n">
         <v>234</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>229.9</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3204,7 +3446,9 @@
       <c r="I84" t="n">
         <v>234</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>229.9</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3243,7 +3487,9 @@
       <c r="I85" t="n">
         <v>233.7</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>229.9</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3282,7 +3528,9 @@
       <c r="I86" t="n">
         <v>235</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>229.9</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3316,12 +3564,12 @@
         <v>-74431.22210005953</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>233.7</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>229.9</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3355,12 +3603,12 @@
         <v>-67105.67620005953</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>234.8</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>229.9</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3394,12 +3642,12 @@
         <v>-67105.67620005953</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>235</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>229.9</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3433,12 +3681,12 @@
         <v>-67084.67620005953</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>235</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>229.9</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3472,12 +3720,12 @@
         <v>-67102.67620005953</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>236.1</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>229.9</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3511,12 +3759,12 @@
         <v>-67102.67620005953</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>235</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>229.9</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3550,12 +3798,12 @@
         <v>-67073.67620005953</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>235</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>229.9</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3589,12 +3837,12 @@
         <v>-62009.74760005953</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>235.2</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>229.9</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3628,16 +3876,20 @@
         <v>-63447.29090005953</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>229.9</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
       <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
@@ -3663,11 +3915,17 @@
         <v>-63447.29090005953</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3696,11 +3954,17 @@
         <v>-56085.98950005953</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3729,11 +3993,17 @@
         <v>-56290.98950005953</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3762,11 +4032,17 @@
         <v>-62071.65360005953</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3795,11 +4071,17 @@
         <v>-62071.65360005953</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3828,11 +4110,17 @@
         <v>-65278.39680005953</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3861,11 +4149,17 @@
         <v>-62211.89910005953</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3894,11 +4188,17 @@
         <v>-62211.89910005953</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3927,11 +4227,17 @@
         <v>-63330.23460005953</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3960,11 +4266,17 @@
         <v>-63328.41970005953</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3996,8 +4308,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4029,8 +4347,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4062,8 +4386,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4095,8 +4425,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4128,8 +4464,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4161,8 +4503,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4194,8 +4542,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4227,8 +4581,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4260,8 +4620,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4293,8 +4659,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4326,8 +4698,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4359,8 +4737,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4392,8 +4776,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4425,8 +4815,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4458,8 +4854,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4491,8 +4893,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4524,8 +4932,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4557,8 +4971,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4590,8 +5010,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4623,8 +5049,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4656,8 +5088,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4689,8 +5127,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4722,8 +5166,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4755,8 +5205,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4788,8 +5244,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4821,8 +5283,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4854,8 +5322,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4887,8 +5361,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4920,8 +5400,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4953,8 +5439,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4986,8 +5478,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5019,8 +5517,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5052,8 +5556,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5085,8 +5595,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5118,8 +5634,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5151,8 +5673,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5184,8 +5712,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5217,8 +5751,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5250,8 +5790,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5283,8 +5829,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5316,8 +5868,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5349,8 +5907,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5382,8 +5946,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5415,8 +5985,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5448,8 +6024,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5481,8 +6063,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5514,8 +6102,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5547,8 +6141,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5580,8 +6180,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5613,8 +6219,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5646,8 +6258,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5679,8 +6297,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5712,8 +6336,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5745,8 +6375,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5778,8 +6414,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5811,8 +6453,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5844,8 +6492,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5877,8 +6531,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5910,8 +6570,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5940,11 +6606,17 @@
         <v>-34588.11386728925</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5976,8 +6648,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6006,11 +6684,17 @@
         <v>-33059.11716728925</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6039,11 +6723,17 @@
         <v>-33059.11716728925</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6072,11 +6762,17 @@
         <v>-33059.11716728925</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6105,11 +6801,17 @@
         <v>-33059.11716728925</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6138,11 +6840,17 @@
         <v>-32390.91716728924</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6171,11 +6879,17 @@
         <v>-33137.09016728924</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6204,11 +6918,17 @@
         <v>13631.81963271076</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6237,11 +6957,17 @@
         <v>13627.41963271076</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6270,11 +6996,17 @@
         <v>22897.07853271076</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6303,11 +7035,17 @@
         <v>22892.87853271076</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6336,11 +7074,17 @@
         <v>23057.39483271076</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6369,11 +7113,17 @@
         <v>23068.09033271076</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6402,11 +7152,17 @@
         <v>28123.49783271076</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6435,11 +7191,17 @@
         <v>28123.49783271076</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6468,11 +7230,17 @@
         <v>27931.49783271076</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6501,11 +7269,17 @@
         <v>35563.43623271076</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6534,11 +7308,17 @@
         <v>34629.68323271076</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6567,11 +7347,17 @@
         <v>32229.68323271076</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6600,11 +7386,17 @@
         <v>31107.68323271076</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6633,11 +7425,17 @@
         <v>29691.29773271076</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6666,11 +7464,17 @@
         <v>29596.58393271076</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6699,11 +7503,17 @@
         <v>26062.61793271076</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6732,11 +7542,17 @@
         <v>11099.02323271076</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6768,8 +7584,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6801,8 +7623,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6834,8 +7662,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6867,8 +7701,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6900,8 +7740,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6933,8 +7779,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6963,11 +7815,17 @@
         <v>5518.409732710761</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6999,8 +7857,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7032,8 +7896,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7062,11 +7932,17 @@
         <v>5170.422332710761</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7095,11 +7971,17 @@
         <v>5474.123332710761</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7128,11 +8010,17 @@
         <v>6274.123332710761</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7161,11 +8049,17 @@
         <v>6274.123332710761</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7194,11 +8088,17 @@
         <v>6248.123332710761</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7227,11 +8127,17 @@
         <v>-2690.143667289239</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7260,11 +8166,17 @@
         <v>13659.68033271076</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7293,11 +8205,17 @@
         <v>21057.28283271076</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7326,11 +8244,17 @@
         <v>21057.28283271076</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7359,11 +8283,17 @@
         <v>17971.28283271076</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7392,11 +8322,17 @@
         <v>17971.28283271076</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7425,11 +8361,17 @@
         <v>17971.28283271076</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7458,11 +8400,17 @@
         <v>18042.98283271076</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7491,11 +8439,17 @@
         <v>18321.98283271076</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7524,11 +8478,17 @@
         <v>18467.02633271076</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7557,11 +8517,17 @@
         <v>21167.02633271076</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7590,11 +8556,17 @@
         <v>14194.00713271077</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7623,11 +8595,17 @@
         <v>14990.10183271076</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7656,11 +8634,17 @@
         <v>15081.82933271077</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7689,11 +8673,17 @@
         <v>15340.87643271077</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7722,11 +8712,17 @@
         <v>15100.87653271076</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7755,11 +8751,17 @@
         <v>18770.82313271076</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7788,11 +8790,17 @@
         <v>19560.86303271076</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7821,11 +8829,17 @@
         <v>10618.43873271076</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7854,11 +8868,17 @@
         <v>11055.49933271076</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7887,11 +8907,17 @@
         <v>10971.49933271076</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7920,11 +8946,17 @@
         <v>10654.49933271076</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7953,11 +8985,17 @@
         <v>15881.80133271076</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7986,11 +9024,17 @@
         <v>15797.80133271076</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8019,11 +9063,17 @@
         <v>15394.68103271076</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8052,11 +9102,17 @@
         <v>17458.80203271076</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8085,11 +9141,17 @@
         <v>19458.80203271076</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8118,11 +9180,17 @@
         <v>19458.80203271076</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8151,11 +9219,17 @@
         <v>21153.34773271076</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8184,11 +9258,17 @@
         <v>21153.34773271076</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8217,11 +9297,17 @@
         <v>7707.646932710761</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8250,11 +9336,17 @@
         <v>7451.99653271076</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8283,11 +9375,17 @@
         <v>-18428.65756728924</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8316,11 +9414,17 @@
         <v>-18428.65756728924</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8349,11 +9453,17 @@
         <v>-24193.98296728924</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8382,11 +9492,17 @@
         <v>-23693.98296728924</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8415,11 +9531,17 @@
         <v>-24914.4193457558</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8448,11 +9570,17 @@
         <v>-26147.0174457558</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8481,11 +9609,17 @@
         <v>-26503.13684575579</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8514,11 +9648,17 @@
         <v>-26611.7661457558</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8547,11 +9687,17 @@
         <v>-26111.7661457558</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8580,11 +9726,17 @@
         <v>-20711.7661457558</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8613,11 +9765,17 @@
         <v>-20711.7661457558</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8646,11 +9804,17 @@
         <v>-20711.7661457558</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8679,11 +9843,17 @@
         <v>-20711.7661457558</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8712,11 +9882,17 @@
         <v>-20711.7661457558</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8745,11 +9921,17 @@
         <v>-20711.7661457558</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8778,11 +9960,17 @@
         <v>-19080.9078457558</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8811,11 +9999,17 @@
         <v>-19126.95164575579</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8844,11 +10038,17 @@
         <v>-19200.3371457558</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8877,11 +10077,17 @@
         <v>-23904.55664575579</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8910,11 +10116,17 @@
         <v>-24213.44764575579</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8943,11 +10155,17 @@
         <v>-23215.44764575579</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8976,11 +10194,17 @@
         <v>-24477.94354575579</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9009,11 +10233,17 @@
         <v>-24500.14354575579</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9042,11 +10272,17 @@
         <v>12471.06125424421</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9075,11 +10311,17 @@
         <v>12468.86125424421</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9108,11 +10350,17 @@
         <v>11764.27615424421</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9141,11 +10389,17 @@
         <v>-2550.068945755795</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9174,11 +10428,17 @@
         <v>-2552.368945755795</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9210,8 +10470,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9243,8 +10509,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9276,8 +10548,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9309,8 +10587,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9342,8 +10626,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9375,8 +10665,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9408,8 +10704,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9441,8 +10743,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9474,8 +10782,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9507,8 +10821,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9540,8 +10860,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9573,8 +10899,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9606,8 +10938,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9639,8 +10977,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9672,8 +11016,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9705,8 +11055,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9738,8 +11094,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9771,8 +11133,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9804,8 +11172,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9837,8 +11211,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9870,8 +11250,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9903,8 +11289,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9936,8 +11328,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9969,8 +11367,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10002,8 +11406,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10035,8 +11445,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10068,8 +11484,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10101,8 +11523,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10134,8 +11562,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10167,8 +11601,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10200,8 +11640,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10233,8 +11679,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10266,8 +11718,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10299,8 +11757,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10332,8 +11796,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10365,8 +11835,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10398,8 +11874,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10431,8 +11913,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10464,8 +11952,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10497,8 +11991,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10530,8 +12030,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10563,8 +12069,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10596,8 +12108,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10629,8 +12147,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10662,8 +12186,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10695,8 +12225,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10728,8 +12264,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10761,8 +12303,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10794,8 +12342,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10824,11 +12378,17 @@
         <v>-40654.9560457558</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10857,11 +12417,17 @@
         <v>-40654.9560457558</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10890,11 +12456,17 @@
         <v>-38074.7733457558</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10923,11 +12495,17 @@
         <v>-31127.4983457558</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10956,11 +12534,17 @@
         <v>-31127.4983457558</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10989,11 +12573,17 @@
         <v>-31127.4983457558</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11022,11 +12612,17 @@
         <v>-31127.4983457558</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11055,11 +12651,17 @@
         <v>-31030.8424457558</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11088,11 +12690,17 @@
         <v>-29966.40484575579</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11121,11 +12729,17 @@
         <v>-29966.40484575579</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11154,11 +12768,17 @@
         <v>-30013.7763457558</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11187,11 +12807,17 @@
         <v>-30061.1478457558</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11220,11 +12846,17 @@
         <v>-30468.1148457558</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11253,11 +12885,17 @@
         <v>-29824.3780457558</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11286,11 +12924,17 @@
         <v>-29834.3780457558</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11319,11 +12963,17 @@
         <v>-36781.6530457558</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11352,11 +13002,17 @@
         <v>-36374.7155457558</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11385,11 +13041,17 @@
         <v>-36374.7155457558</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11418,11 +13080,17 @@
         <v>-36374.7155457558</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11451,11 +13119,17 @@
         <v>-36374.7155457558</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11487,8 +13161,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11520,8 +13200,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11550,11 +13236,17 @@
         <v>-30744.0265457558</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11583,11 +13275,17 @@
         <v>-30744.0265457558</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11619,8 +13317,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11649,11 +13353,17 @@
         <v>-30654.7678457558</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11682,11 +13392,17 @@
         <v>-30663.2584457558</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11715,11 +13431,17 @@
         <v>-30621.2584457558</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11748,11 +13470,17 @@
         <v>-19621.2584457558</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11781,11 +13509,17 @@
         <v>-19824.2877457558</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11814,11 +13548,17 @@
         <v>-19824.2877457558</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11847,11 +13587,17 @@
         <v>-19503.19144575579</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11880,11 +13626,17 @@
         <v>-14954.60704575579</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11916,8 +13668,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11949,8 +13707,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11979,15 +13743,23 @@
         <v>-12119.43334575579</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>229.9</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L348" t="n">
-        <v>1</v>
-      </c>
-      <c r="M348" t="inlineStr"/>
+        <v>1.094608525445846</v>
+      </c>
+      <c r="M348" t="n">
+        <v>1.047835990888383</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -12012,7 +13784,7 @@
         <v>-13198.06254575579</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12045,7 +13817,7 @@
         <v>-15370.87984575579</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12111,7 +13883,7 @@
         <v>-15398.08634575579</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12144,7 +13916,7 @@
         <v>-13652.34264575579</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12177,7 +13949,7 @@
         <v>-13652.34264575579</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12210,7 +13982,7 @@
         <v>-13150.0138457558</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12243,7 +14015,7 @@
         <v>-13512.4723457558</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12276,7 +14048,7 @@
         <v>-9122.472345755796</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12309,7 +14081,7 @@
         <v>-9122.472345755796</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12342,7 +14114,7 @@
         <v>-8718.351145755796</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12375,7 +14147,7 @@
         <v>-8718.351145755796</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12408,7 +14180,7 @@
         <v>-8733.351145755796</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12441,7 +14213,7 @@
         <v>-7833.351145755796</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12474,7 +14246,7 @@
         <v>-7938.458445755796</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12507,7 +14279,7 @@
         <v>-7802.020577937899</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12540,7 +14312,7 @@
         <v>-36195.9458779379</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12573,7 +14345,7 @@
         <v>-36002.0938779379</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12606,7 +14378,7 @@
         <v>-36421.5038779379</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12639,7 +14411,7 @@
         <v>-37826.4949779379</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12738,7 +14510,7 @@
         <v>-25963.7899779379</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12771,7 +14543,7 @@
         <v>-24047.7862779379</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12804,7 +14576,7 @@
         <v>-25963.7899779379</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12837,7 +14609,7 @@
         <v>-21563.7899779379</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12870,7 +14642,7 @@
         <v>-21563.7899779379</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12903,7 +14675,7 @@
         <v>-31418.2498779379</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12936,7 +14708,7 @@
         <v>-30131.4861779379</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12969,7 +14741,7 @@
         <v>-30183.5561779379</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13002,7 +14774,7 @@
         <v>-30183.5561779379</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13035,7 +14807,7 @@
         <v>-30153.5561779379</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13068,7 +14840,7 @@
         <v>-35545.3704779379</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13101,7 +14873,7 @@
         <v>-31790.9103779379</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13134,7 +14906,7 @@
         <v>-33790.91037793791</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13167,7 +14939,7 @@
         <v>-32790.91037793791</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13200,7 +14972,7 @@
         <v>-32990.91037793791</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13233,7 +15005,7 @@
         <v>-33590.91037793791</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13266,7 +15038,7 @@
         <v>-35763.25557793791</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13299,7 +15071,7 @@
         <v>-31072.26687793791</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13332,7 +15104,7 @@
         <v>-30745.52997793791</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13365,7 +15137,7 @@
         <v>-31289.88197793791</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13398,7 +15170,7 @@
         <v>-32917.87517793791</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13431,7 +15203,7 @@
         <v>-32917.87517793791</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13464,7 +15236,7 @@
         <v>-32725.97937793791</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13497,7 +15269,7 @@
         <v>-32725.97937793791</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13530,7 +15302,7 @@
         <v>-31288.37767793791</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13563,7 +15335,7 @@
         <v>-31188.37767793791</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13596,7 +15368,7 @@
         <v>-29038.37767793791</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13629,7 +15401,7 @@
         <v>-26712.66985689736</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13662,7 +15434,7 @@
         <v>-26712.66985689736</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13695,7 +15467,7 @@
         <v>-25721.91185689736</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13728,7 +15500,7 @@
         <v>-25721.91185689736</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13761,7 +15533,7 @@
         <v>-27721.91185689736</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13794,7 +15566,7 @@
         <v>-27013.91185689736</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13827,7 +15599,7 @@
         <v>-27013.91185689736</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13860,7 +15632,7 @@
         <v>-27013.91185689736</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13893,7 +15665,7 @@
         <v>-30951.52505689736</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13926,7 +15698,7 @@
         <v>-30086.96755689736</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13959,7 +15731,7 @@
         <v>-70086.96755689736</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13992,7 +15764,7 @@
         <v>-66975.65885689737</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14025,7 +15797,7 @@
         <v>-66073.49655689737</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14058,7 +15830,7 @@
         <v>-63288.73292704946</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14091,7 +15863,7 @@
         <v>-63366.03117742998</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14124,7 +15896,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14157,7 +15929,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14190,7 +15962,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14223,7 +15995,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14256,7 +16028,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14289,7 +16061,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14322,7 +16094,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14355,7 +16127,7 @@
         <v>-55496.78967742997</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14388,7 +16160,7 @@
         <v>-54130.97177742997</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14421,7 +16193,7 @@
         <v>-52130.97177742997</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14454,7 +16226,7 @@
         <v>-49420.93627742997</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14487,7 +16259,7 @@
         <v>-50285.49377742998</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14520,7 +16292,7 @@
         <v>-47960.22697742998</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14553,7 +16325,7 @@
         <v>-58719.72607742998</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14586,7 +16358,7 @@
         <v>-58719.72607742998</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14619,7 +16391,7 @@
         <v>-58719.72607742998</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14652,7 +16424,7 @@
         <v>-59719.72607742998</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14685,7 +16457,7 @@
         <v>-61319.72607742998</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14718,7 +16490,7 @@
         <v>-61319.72607742998</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14751,7 +16523,7 @@
         <v>-26201.10817742998</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14784,7 +16556,7 @@
         <v>-34444.10817742998</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14817,7 +16589,7 @@
         <v>-34494.10817742998</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14850,7 +16622,7 @@
         <v>-31239.49487742998</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14883,7 +16655,7 @@
         <v>-31249.49487742998</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14916,7 +16688,7 @@
         <v>-32198.08237742998</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
